--- a/biology/Botanique/Glomérule_(botanique)/Glomérule_(botanique).xlsx
+++ b/biology/Botanique/Glomérule_(botanique)/Glomérule_(botanique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Glom%C3%A9rule_(botanique)</t>
+          <t>Glomérule_(botanique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En botanique, un glomérule est un type d'inflorescence. Ce terme correspond plus à une forme générale d'inflorescence qu'à un type d'organisation particulier.
-Chez la betterave le terme glomérule désigne aussi les «graines plurigermes» qui comprennent en fait 3 à 6 graines accolées[1].
+Chez la betterave le terme glomérule désigne aussi les «graines plurigermes» qui comprennent en fait 3 à 6 graines accolées.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Glom%C3%A9rule_(botanique)</t>
+          <t>Glomérule_(botanique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un glomérule est d'aspect globuleux et dense formée par la juxtaposition de nombreuses fleurs sessiles ou à axes très courts, fixées au même niveau comme pour la cyme.
 Il s'agit en général d'inflorescences dont les rameaux sont très courts, souvent dérivées de cymes, ce que l'on peut reconnaître en examinant attentivement le mode d'insertion des fleurs. De loin, elles ressemblent grossièrement à des capitules.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Glom%C3%A9rule_(botanique)</t>
+          <t>Glomérule_(botanique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Exemples d'organismes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La betterave ou le gui forment des glomérules.
 </t>
